--- a/examples/Java/inner-class/随机宝箱.xlsx
+++ b/examples/Java/inner-class/随机宝箱.xlsx
@@ -1,98 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="18697" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="meta" sheetId="4" r:id="rId3"/>
+    <sheet name="@meta" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>GoodsID1</t>
+  </si>
+  <si>
+    <t>Num1</t>
+  </si>
+  <si>
+    <t>Probability1</t>
+  </si>
+  <si>
+    <t>GoodsID2</t>
+  </si>
+  <si>
+    <t>Num2</t>
+  </si>
+  <si>
+    <t>Probability2</t>
+  </si>
+  <si>
+    <t>GoodsID3</t>
+  </si>
+  <si>
+    <t>Num3</t>
+  </si>
+  <si>
+    <t>Probability3</t>
   </si>
   <si>
     <t>奖励总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsID2</t>
-  </si>
-  <si>
-    <t>Num2</t>
-  </si>
-  <si>
-    <t>Probability2</t>
-  </si>
-  <si>
-    <t>GoodsID3</t>
-  </si>
-  <si>
-    <t>Num3</t>
-  </si>
-  <si>
-    <t>Probability3</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>是否可重复</t>
   </si>
   <si>
     <t>物品1id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品1数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品1概率</t>
+  </si>
+  <si>
+    <t>物品2id</t>
   </si>
   <si>
     <t>物品2数量</t>
   </si>
   <si>
-    <t>物品1概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品2id</t>
-  </si>
-  <si>
     <t>物品2概率</t>
   </si>
   <si>
@@ -105,157 +104,443 @@
     <t>物品3概率</t>
   </si>
   <si>
+    <t>Box01</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Hero1</t>
+  </si>
+  <si>
+    <t>Soldier1</t>
+  </si>
+  <si>
+    <t>Box02</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Hero2</t>
+  </si>
+  <si>
+    <t>Soldier2</t>
+  </si>
+  <si>
+    <t>Box03</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Hero3</t>
+  </si>
+  <si>
+    <t>Soldier3</t>
+  </si>
+  <si>
     <t>程序导出参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class-name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxProbabilityDefine</t>
   </si>
   <si>
     <t>class-comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get-keys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probability1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoxProbabilityDefine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inner-type-range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,-1,3</t>
+  </si>
+  <si>
+    <t>生成一个内部的类型</t>
   </si>
   <si>
     <t>inner-type-class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ProbabilityGoodsDefine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inner-type-name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ProbabilityGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成一个内部的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero2</t>
-  </si>
-  <si>
-    <t>Hero3</t>
-  </si>
-  <si>
-    <t>Soldier1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier2</t>
-  </si>
-  <si>
-    <t>Soldier3</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box02</t>
-  </si>
-  <si>
-    <t>Box03</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,-1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,9 +548,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -276,17 +803,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -370,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -544,64 +1115,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.2477876106195" customWidth="1"/>
+    <col min="8" max="8" width="9.6283185840708" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="11.2477876106195" customWidth="1"/>
+    <col min="11" max="11" width="9.6283185840708" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="11.2477876106195" customWidth="1"/>
+    <col min="20" max="22" width="8.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -610,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -619,91 +1184,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -715,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -724,7 +1289,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -733,7 +1298,7 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -742,9 +1307,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -756,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>2000</v>
@@ -765,7 +1330,7 @@
         <v>5000</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -774,7 +1339,7 @@
         <v>1000</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -783,9 +1348,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -797,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>3000</v>
@@ -806,7 +1371,7 @@
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -815,7 +1380,7 @@
         <v>1000</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -824,7 +1389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:23">
       <c r="E14" s="2"/>
       <c r="N14" s="2"/>
       <c r="Q14" s="2"/>
@@ -832,99 +1397,85 @@
       <c r="W14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="21.7522123893805" customWidth="1"/>
+    <col min="3" max="3" width="19.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>